--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2944897.146975805</v>
+        <v>2943009.565459402</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>106.7209824064454</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>205.1478855987997</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.75877386913968</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>162.5776147681367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231293</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>57.85017494300117</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151916</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>85.05437413388447</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>106.2835578420354</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>277.0465824170321</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>33.35146980185853</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>155.5905547461161</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965534</v>
+        <v>93.41221638965513</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801216</v>
+        <v>91.23070601801194</v>
       </c>
       <c r="F31" t="n">
-        <v>18.66111384519087</v>
+        <v>90.21779139437402</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897911</v>
+        <v>93.7105717389789</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571498</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523579</v>
+        <v>54.76109577523557</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>80.87481874710235</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3275,16 +3275,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781315</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656313</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2335.588333528591</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.819678258477</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.819678258477</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.680346282665</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430001</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150932</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>520.9088977430001</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9088977430001</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>980.6066514154686</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>980.6066514154686</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>980.6066514154686</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592772</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776798</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700475</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718032</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>598.044640063212</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>343.3601518573251</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5039,19 +5039,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>380.9740019042124</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5230,19 +5230,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,22 +5279,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5604,13 +5604,13 @@
         <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>791.435389115469</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>634.0455001582217</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646857</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829218</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550148</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>1098.712528333285</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>844.0280401273988</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>564.1830073829218</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829218</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829218</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5990,16 +5990,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926337</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,16 +6151,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6227,25 +6227,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6263,7 +6263,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028587</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6449,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030865</v>
+        <v>695.1010933248424</v>
       </c>
       <c r="C31" t="n">
-        <v>565.4200295030865</v>
+        <v>581.9257756783064</v>
       </c>
       <c r="D31" t="n">
-        <v>471.0642553721216</v>
+        <v>487.5700015473416</v>
       </c>
       <c r="E31" t="n">
-        <v>378.9120270710991</v>
+        <v>395.4177732463194</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>304.28869102978</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>191.8742346309716</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962059</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818924</v>
+        <v>902.6804289818954</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652459</v>
+        <v>902.6804289818954</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030865</v>
+        <v>820.9886928737112</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254956</v>
@@ -6865,7 +6865,7 @@
         <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,25 +6935,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,7 +7096,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7333,7 +7333,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,16 +7570,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649685</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083204</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.6266194094365</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>96.03744927814705</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>223.6742649934481</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359983</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>87.16935584025424</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>32.92248665775634</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775656</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684486102</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>228.6728233935898</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338569</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>133.5302792182103</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338589</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>115.2640032163539</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338608</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>9.47641591955886</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5623585656776</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>70.11910064292104</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>71.55667754918336</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571477</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>82.5065779764352</v>
       </c>
     </row>
     <row r="32">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>794348.8748523082</v>
+        <v>794348.8748523083</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.495580334</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803336</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="K2" t="n">
         <v>650915.4197524317</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914261</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="N2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.415891427</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.415891427</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284575</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086674</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26427,10 +26427,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26442,22 +26442,22 @@
         <v>22174.60758687069</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106723</v>
+        <v>40339.23010106731</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="N4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>408341.4700414927</v>
       </c>
       <c r="D6" t="n">
-        <v>408341.4700414925</v>
+        <v>408341.470041493</v>
       </c>
       <c r="E6" t="n">
-        <v>-13675.47443214928</v>
+        <v>-13772.93355812143</v>
       </c>
       <c r="F6" t="n">
-        <v>511484.5620447465</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="G6" t="n">
-        <v>511484.5620447466</v>
+        <v>511387.1029187743</v>
       </c>
       <c r="H6" t="n">
-        <v>511484.5620447468</v>
+        <v>511387.1029187742</v>
       </c>
       <c r="I6" t="n">
-        <v>511484.5620447469</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="J6" t="n">
-        <v>335061.3428521538</v>
+        <v>334963.8837261813</v>
       </c>
       <c r="K6" t="n">
-        <v>469785.3758182961</v>
+        <v>469766.8820803615</v>
       </c>
       <c r="L6" t="n">
-        <v>504182.0084423434</v>
+        <v>504182.0084423429</v>
       </c>
       <c r="M6" t="n">
-        <v>379723.900009373</v>
+        <v>379723.9000093725</v>
       </c>
       <c r="N6" t="n">
         <v>514524.91524321</v>
       </c>
       <c r="O6" t="n">
-        <v>514524.9152432106</v>
+        <v>514524.9152432104</v>
       </c>
       <c r="P6" t="n">
-        <v>470362.309940365</v>
+        <v>470362.3099403646</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26920,22 +26920,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108364</v>
+        <v>12.92863350108343</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>221.0312760636895</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>20.56176979023743</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>379.1172718725717</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>89.56002855569128</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>35.43826180874038</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858212</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29995,10 +29995,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,22 +30220,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076454</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,10 +35741,10 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>138.6396521945106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>374.2497035813873</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36288,7 +36288,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206028</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.3583680453843</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686864</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>294.2627707717789</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>240.015901589281</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412253</v>
+        <v>67.71102679412274</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043176</v>
+        <v>94.42895660043197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519464</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>366.1170600557694</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405104</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
